--- a/python-excel-copilot-regex-demo.xlsx
+++ b/python-excel-copilot-regex-demo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6726DA03-8304-44F0-897A-D67D027D78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2249AC-B85A-4B60-AD5A-CCC8F0613042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{A6BACA19-E558-4112-8238-A3C5289811BC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{A6BACA19-E558-4112-8238-A3C5289811BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,217 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="7">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="7">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>contacts_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Identify contact type in the 'Contact Info' column
+import re
+# Function to identify the type of contact info
+def identify_contact_type(contact):
+    if re.match(r'^[\w\.-]+@[\w\.-]+\.\w+$', contact):
+        return 'Email'
+    elif re.match(r'^\+?\d[\d\s\-\.\(\)]+$', contact):
+        return 'Phone'
+    else:
+        return 'Invalid'
+# Apply the function to the 'Contact Info' column
+contacts_df['Contact Type'] = contacts_df['Contact Info'].apply(identify_contact_type)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Identify additional info type in the 'Additional Info' column
+# Function to extract additional info
+def extract_additional_info(info):
+    date_pattern = r'\d{4}-\d{2}-\d{2}|\d{2}/\d{2}/\d{4}'
+    url_pattern = r'https?://[\w\.-]+|www\.[\w\.-]+'
+    cc_pattern = r'\d{4}[-\s]?\d{4}[-\s]?\d{4}[-\s]?\d{4}'
+    phone_pattern = r'\+?\d[\d\s\-\.\(\)]+'
+    if re.search(date_pattern, info):
+        return 'Date'
+    elif re.search(url_pattern, info):
+        return 'URL'
+    elif re.search(cc_pattern, info):
+        return 'Credit Card'
+    elif re.search(phone_pattern, info):
+        return 'Phone'
+    else:
+        return 'Other'
+# Apply the function to the 'Additional Info' column
+contacts_df['Additional Info Type'] = contacts_df['Additional Info'].apply(extract_additional_info)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Extract email domains
+def extract_email_domain(contact):
+    if re.match(r'^[\w\.-]+@[\w\.-]+\.\w+$', contact):
+        return contact.split('@')[1]
+    else:
+        return ''
+# Apply the function to the 'Contact Info' column
+contacts_df['Email Domain'] = contacts_df['Contact Info'].apply(extract_email_domain)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Check for valid US phone numbers and add 'Valid Phone' column
+# Function to check for valid US phone numbers
+def is_valid_us_phone(info):
+    phone_pattern = r'\+1\s?\(\d{3}\)\s?\d{3}-\d{4}|\+1\s?\d{3}-\d{3}-\d{4}|\d{3}\.\d{3}\.\d{4}|\d{3}-\d{3}-\d{4}'
+    return bool(re.search(phone_pattern, info))
+# Apply the function to the 'Contact Info' and 'Additional Info' columns
+contacts_df['Valid Phone'] = contacts_df.apply(lambda row: is_valid_us_phone(row['Contact Info']) or is_valid_us_phone(row['Additional Info']), axis=1)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Check for valid website URLs and add 'Website' column
+# Check for valid website URLs and add 'Website' column
+# Function to check for valid website URLs
+def extract_website(info):
+    url_pattern = r'https?://[\w\.-]+|www\.[\w\.-]+'
+    match = re.search(url_pattern, info)
+    return match.group(0) if match else ''
+# Apply the function to the 'Contact Info' and 'Additional Info' columns
+contacts_df['Website'] = contacts_df.apply(lambda row: extract_website(row['Contact Info']) or extract_website(row['Additional Info']), axis=1)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Mask credit card numbers in 'Additional Info' column
+#Identify and mask credit card numbers in the 'Additional Info' column
+# Function to mask credit card numbers
+def mask_credit_card(info):
+    cc_pattern = r'(\d{4})[-\s]?(\d{4})[-\s]?(\d{4})[-\s]?(\d{4})'
+    return re.sub(cc_pattern, r'XXXX-XXXX-XXXX-\4', info)
+# Apply the function to the 'Additional Info' column
+contacts_df['Masked Info'] = contacts_df['Additional Info'].apply(mask_credit_card)
+# Display the updated DataFrame
+contacts_df</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -88,12 +298,42 @@
   <si>
     <t>CC: 5500 0000 0000 0004</t>
   </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from Sheet1, contacts</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Identify contact type in the 'Contact Info' column</t>
+  </si>
+  <si>
+    <t>Identify additional info type in the 'Additional Info' column</t>
+  </si>
+  <si>
+    <t>Extract email domains</t>
+  </si>
+  <si>
+    <t>Check for valid US phone numbers and add 'Valid Phone' column</t>
+  </si>
+  <si>
+    <t>Check for valid website URLs and add 'Website' column</t>
+  </si>
+  <si>
+    <t>Mask credit card numbers in 'Additional Info' column</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -113,6 +353,30 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,12 +414,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -175,15 +451,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -197,13 +464,717 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+  <a r="8" c="4">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+  </a>
+  <a r="8" c="5">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+  </a>
+  <a r="8" c="6">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v t="s">Additional Info Type</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v t="s">Date</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v t="s">URL</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v t="s">Phone</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v t="s">Date</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v t="s">URL</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+  </a>
+  <a r="8" c="7">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v t="s">Additional Info Type</v>
+    <v t="s">Email Domain</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v t="s">Date</v>
+    <v t="s">example.com</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v t="s">URL</v>
+    <v t="s">work-mail.net</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v t="s">Phone</v>
+    <v t="s">my-site.org</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v t="s">URL</v>
+    <v t="s"/>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+  </a>
+  <a r="8" c="8">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v t="s">Additional Info Type</v>
+    <v t="s">Email Domain</v>
+    <v t="s">Valid Phone</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v t="s">Date</v>
+    <v t="s">example.com</v>
+    <v t="b">0</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v t="s">URL</v>
+    <v t="s">work-mail.net</v>
+    <v t="b">0</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v t="s">Phone</v>
+    <v t="s">my-site.org</v>
+    <v t="b">1</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v t="s">URL</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+  </a>
+  <a r="8" c="9">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v t="s">Additional Info Type</v>
+    <v t="s">Email Domain</v>
+    <v t="s">Valid Phone</v>
+    <v t="s">Website</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v t="s">Date</v>
+    <v t="s">example.com</v>
+    <v t="b">0</v>
+    <v t="s"/>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v t="s">URL</v>
+    <v t="s">work-mail.net</v>
+    <v t="b">0</v>
+    <v t="s">https://www.worksite.com</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+    <v t="s"/>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v t="s">Phone</v>
+    <v t="s">my-site.org</v>
+    <v t="b">1</v>
+    <v t="s"/>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v t="s"/>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v t="s">URL</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v t="s">www.example.net</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+    <v t="s"/>
+  </a>
+  <a r="8" c="10">
+    <v t="s"/>
+    <v t="s">ID</v>
+    <v t="s">Contact Info</v>
+    <v t="s">Additional Info</v>
+    <v t="s">Contact Type</v>
+    <v t="s">Additional Info Type</v>
+    <v t="s">Email Domain</v>
+    <v t="s">Valid Phone</v>
+    <v t="s">Website</v>
+    <v t="s">Masked Info</v>
+    <v>0</v>
+    <v>1</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v t="s">Email</v>
+    <v t="s">Date</v>
+    <v t="s">example.com</v>
+    <v t="b">0</v>
+    <v t="s"/>
+    <v t="s">Signed up on 2025-02-15</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">jane_doe123@work-mail.net</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v t="s">Email</v>
+    <v t="s">URL</v>
+    <v t="s">work-mail.net</v>
+    <v t="b">0</v>
+    <v t="s">https://www.worksite.com</v>
+    <v t="s">Website: https://www.worksite.com</v>
+    <v>2</v>
+    <v>3</v>
+    <v t="s">invalid-email</v>
+    <v t="s">Credit Card: 4111-1111-1111-1111</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+    <v t="s"/>
+    <v t="s">Credit Card: XXXX-XXXX-XXXX-1111</v>
+    <v>3</v>
+    <v>4</v>
+    <v t="s">admin@my-site.org</v>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v t="s">Email</v>
+    <v t="s">Phone</v>
+    <v t="s">my-site.org</v>
+    <v t="b">1</v>
+    <v t="s"/>
+    <v t="s">Phone: +1 (555) 123-4567</v>
+    <v>4</v>
+    <v>5</v>
+    <v t="s">+1 (555) 987-6543</v>
+    <v t="s">Registered: 03/12/2025</v>
+    <v t="s">Phone</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v t="s"/>
+    <v t="s">Registered: 03/12/2025</v>
+    <v>5</v>
+    <v>6</v>
+    <v t="s">555.987.6543</v>
+    <v t="s">URL: www.example.net</v>
+    <v t="s">Phone</v>
+    <v t="s">URL</v>
+    <v t="s"/>
+    <v t="b">1</v>
+    <v t="s">www.example.net</v>
+    <v t="s">URL: www.example.net</v>
+    <v>6</v>
+    <v>7</v>
+    <v t="s">Not applicable</v>
+    <v t="s">CC: 5500 0000 0000 0004</v>
+    <v t="s">Invalid</v>
+    <v t="s">Credit Card</v>
+    <v t="s"/>
+    <v t="b">0</v>
+    <v t="s"/>
+    <v t="s">CC: XXXX-XXXX-XXXX-0004</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="21">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info
+0   1       john.doe@example.com            Signed up on 2025-02-15
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com
+2   3              invalid-email   Credit Card: ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>6</v>
+    <v>6</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>7</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>8</v>
+    <v>9</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>10</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>10</v>
+    <v>12</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>13</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>12</v>
+    <v>15</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>16</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>14</v>
+    <v>18</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ID               Contact Info                    Additional Info  \
+0   1       john.doe@example.com            Signed up on 2025-02-15   
+1   2  jane_doe123@work-mail.net  Website: https://www.worksite.com   
+2   3              invalid-email   Cred...</v>
+    <v>19</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="15">
+    <spb s="0">
+      <v>7</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>5</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>6</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>7</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>9</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>11</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>9</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>13</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{871D0EA0-9200-4FB3-86CD-A78E438D78D6}" name="contacts" displayName="contacts" ref="A1:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{871D0EA0-9200-4FB3-86CD-A78E438D78D6}" name="contacts" displayName="contacts" ref="A1:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C8" xr:uid="{871D0EA0-9200-4FB3-86CD-A78E438D78D6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F66E5DE-3669-410B-80EB-B3671324EE54}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{47F10A6E-E420-462A-BB1D-AD6AC5373ACE}" name="Contact Info" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{17F31A5A-510F-45FF-84CD-52278BE5B3AE}" name="Additional Info" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{7F66E5DE-3669-410B-80EB-B3671324EE54}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{47F10A6E-E420-462A-BB1D-AD6AC5373ACE}" name="Contact Info" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{17F31A5A-510F-45FF-84CD-52278BE5B3AE}" name="Additional Info" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F636E1-B046-4FD8-9861-847C3B3D2B4C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.15625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -637,4 +1608,1440 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249AE9A8-740B-4DC4-830F-5A818ED3BA42}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="23.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.9" x14ac:dyDescent="1">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,contacts[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:D16">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Additional Info</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D15" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D16" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="e" cm="1" vm="2">
+        <f t="array" ref="A20">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="str" cm="1">
+        <f t="array" ref="A23:E30">IFERROR(_FV(A20,"arrayPreview"),_xlfn._DF_Python_str(A20))</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Contact Type</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Invalid</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D29" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D30" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Invalid</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="e" cm="1" vm="3">
+        <f t="array" ref="A34">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="str" cm="1">
+        <f t="array" ref="A37:F44">IFERROR(_FV(A34,"arrayPreview"),_xlfn._DF_Python_str(A34))</f>
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Contact Type</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Additional Info Type</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Date</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F39" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Credit Card</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Date</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D43" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F43" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D44" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Credit Card</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="e" cm="1" vm="4">
+        <f t="array" ref="A48">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="str" cm="1">
+        <f t="array" ref="A51:G58">IFERROR(_FV(A48,"arrayPreview"),_xlfn._DF_Python_str(A48))</f>
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Contact Type</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Additional Info Type</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Email Domain</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G52" t="str">
+        <v>example.com</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F53" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G53" t="str">
+        <v>work-mail.net</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="G55" t="str">
+        <v>my-site.org</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D57" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F57" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D58" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="e" cm="1" vm="5">
+        <f t="array" ref="A62">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="str" cm="1">
+        <f t="array" ref="A65:H72">IFERROR(_FV(A62,"arrayPreview"),_xlfn._DF_Python_str(A62))</f>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Contact Type</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Additional Info Type</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Email Domain</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Valid Phone</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G66" t="str">
+        <v>example.com</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F67" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G67" t="str">
+        <v>work-mail.net</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="G69" t="str">
+        <v>my-site.org</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D71" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F71" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D72" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="e" cm="1" vm="6">
+        <f t="array" ref="A76">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="str" cm="1">
+        <f t="array" ref="A79:I86">IFERROR(_FV(A76,"arrayPreview"),_xlfn._DF_Python_str(A76))</f>
+        <v/>
+      </c>
+      <c r="B79" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Contact Type</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Additional Info Type</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Email Domain</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Valid Phone</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Website</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G80" t="str">
+        <v>example.com</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F81" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G81" t="str">
+        <v>work-mail.net</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="str">
+        <v>https://www.worksite.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="G83" t="str">
+        <v>my-site.org</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D85" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F85" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <v>www.example.net</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D86" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="e" cm="1" vm="7">
+        <f t="array" ref="A90">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="str" cm="1">
+        <f t="array" ref="A93:J100">IFERROR(_FV(A90,"arrayPreview"),_xlfn._DF_Python_str(A90))</f>
+        <v/>
+      </c>
+      <c r="B93" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Contact Info</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Additional Info</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Contact Type</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Additional Info Type</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Email Domain</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Valid Phone</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Website</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Masked Info</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G94" t="str">
+        <v>example.com</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <v>Signed up on 2025-02-15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="str">
+        <v>jane_doe123@work-mail.net</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F95" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G95" t="str">
+        <v>work-mail.net</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <v>https://www.worksite.com</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Website: https://www.worksite.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="str">
+        <v>invalid-email</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Credit Card: 4111-1111-1111-1111</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v>Credit Card: XXXX-XXXX-XXXX-1111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>admin@my-site.org</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="G97" t="str">
+        <v>my-site.org</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v>Phone: +1 (555) 123-4567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="str">
+        <v>+1 (555) 987-6543</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Date</v>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <v>Registered: 03/12/2025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="str">
+        <v>555.987.6543</v>
+      </c>
+      <c r="D99" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F99" t="str">
+        <v>URL</v>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="str">
+        <v>www.example.net</v>
+      </c>
+      <c r="J99" t="str">
+        <v>URL: www.example.net</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Not applicable</v>
+      </c>
+      <c r="D100" t="str">
+        <v>CC: 5500 0000 0000 0004</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <v>CC: XXXX-XXXX-XXXX-0004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>